--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_32.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>944800.3498836408</v>
+        <v>949012.3076550117</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26314,10 @@
         <v>655421.0709736306</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736304</v>
+        <v>655421.0709736305</v>
       </c>
       <c r="D2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="E2" t="n">
         <v>182912.8770397818</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>463844.333129713</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="F4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="G4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="H4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="I4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="J4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="K4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="L4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="M4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="N4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="O4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="P4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157949.1378439177</v>
+        <v>158642.7398715209</v>
       </c>
       <c r="C6" t="n">
-        <v>157949.1378439174</v>
+        <v>158642.7398715208</v>
       </c>
       <c r="D6" t="n">
-        <v>157949.1378439177</v>
+        <v>158642.739871521</v>
       </c>
       <c r="E6" t="n">
-        <v>-24290.15118874606</v>
+        <v>-23879.11906918628</v>
       </c>
       <c r="F6" t="n">
-        <v>108809.848811254</v>
+        <v>109220.8809308137</v>
       </c>
       <c r="G6" t="n">
-        <v>108809.848811254</v>
+        <v>109220.8809308137</v>
       </c>
       <c r="H6" t="n">
-        <v>108809.848811254</v>
+        <v>109220.8809308137</v>
       </c>
       <c r="I6" t="n">
-        <v>108809.848811254</v>
+        <v>109220.8809308137</v>
       </c>
       <c r="J6" t="n">
-        <v>108809.848811254</v>
+        <v>109220.8809308137</v>
       </c>
       <c r="K6" t="n">
-        <v>108809.848811254</v>
+        <v>109220.8809308137</v>
       </c>
       <c r="L6" t="n">
-        <v>108809.848811254</v>
+        <v>109220.8809308137</v>
       </c>
       <c r="M6" t="n">
-        <v>108809.848811254</v>
+        <v>109220.8809308137</v>
       </c>
       <c r="N6" t="n">
-        <v>108809.848811254</v>
+        <v>109220.8809308137</v>
       </c>
       <c r="O6" t="n">
-        <v>108809.848811254</v>
+        <v>109220.8809308137</v>
       </c>
       <c r="P6" t="n">
-        <v>108809.848811254</v>
+        <v>109220.8809308137</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>949012.3076550117</v>
+        <v>962738.6657924296</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26316,10 @@
         <v>655421.0709736306</v>
       </c>
       <c r="C2" t="n">
+        <v>655421.0709736306</v>
+      </c>
+      <c r="D2" t="n">
         <v>655421.0709736305</v>
-      </c>
-      <c r="D2" t="n">
-        <v>655421.0709736308</v>
       </c>
       <c r="E2" t="n">
         <v>182912.8770397818</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="F4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="G4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="H4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="I4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="J4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="K4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="L4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="M4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="N4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="O4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="P4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
     </row>
     <row r="5">
@@ -26522,13 +26524,13 @@
         <v>158642.7398715209</v>
       </c>
       <c r="C6" t="n">
+        <v>158642.7398715209</v>
+      </c>
+      <c r="D6" t="n">
         <v>158642.7398715208</v>
       </c>
-      <c r="D6" t="n">
-        <v>158642.739871521</v>
-      </c>
       <c r="E6" t="n">
-        <v>-23879.11906918628</v>
+        <v>-23879.11906918632</v>
       </c>
       <c r="F6" t="n">
         <v>109220.8809308137</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>962738.6657924296</v>
+        <v>878953.2640308047</v>
       </c>
     </row>
     <row r="7">
@@ -26319,10 +26319,10 @@
         <v>655421.0709736306</v>
       </c>
       <c r="D2" t="n">
-        <v>655421.0709736305</v>
+        <v>655421.0709736306</v>
       </c>
       <c r="E2" t="n">
-        <v>182912.8770397818</v>
+        <v>182912.8770397817</v>
       </c>
       <c r="F2" t="n">
         <v>182912.8770397818</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158642.7398715209</v>
+        <v>158598.6040928398</v>
       </c>
       <c r="C6" t="n">
-        <v>158642.7398715209</v>
+        <v>158598.6040928398</v>
       </c>
       <c r="D6" t="n">
-        <v>158642.7398715208</v>
+        <v>158598.6040928398</v>
       </c>
       <c r="E6" t="n">
-        <v>-23879.11906918632</v>
+        <v>-38689.13590830032</v>
       </c>
       <c r="F6" t="n">
-        <v>109220.8809308137</v>
+        <v>94410.86409169984</v>
       </c>
       <c r="G6" t="n">
-        <v>109220.8809308137</v>
+        <v>94410.86409169984</v>
       </c>
       <c r="H6" t="n">
-        <v>109220.8809308137</v>
+        <v>94410.86409169984</v>
       </c>
       <c r="I6" t="n">
-        <v>109220.8809308137</v>
+        <v>94410.86409169984</v>
       </c>
       <c r="J6" t="n">
-        <v>109220.8809308137</v>
+        <v>94410.86409169984</v>
       </c>
       <c r="K6" t="n">
-        <v>109220.8809308137</v>
+        <v>94410.86409169984</v>
       </c>
       <c r="L6" t="n">
-        <v>109220.8809308137</v>
+        <v>94410.86409169984</v>
       </c>
       <c r="M6" t="n">
-        <v>109220.8809308137</v>
+        <v>94410.86409169984</v>
       </c>
       <c r="N6" t="n">
-        <v>109220.8809308137</v>
+        <v>94410.86409169984</v>
       </c>
       <c r="O6" t="n">
-        <v>109220.8809308137</v>
+        <v>94410.86409169984</v>
       </c>
       <c r="P6" t="n">
-        <v>109220.8809308137</v>
+        <v>94410.86409169984</v>
       </c>
     </row>
   </sheetData>
